--- a/Examples/2darraysex.xlsx
+++ b/Examples/2darraysex.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IHCC\Java2\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F457D99D-19FD-40DE-B20F-1F50B319FAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623F346-9450-470D-A999-AD3EE680CFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{7C627722-62FB-4C3F-A9C6-75FE47D84430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7C627722-62FB-4C3F-A9C6-75FE47D84430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>CIS175</t>
   </si>
@@ -97,6 +98,42 @@
   </si>
   <si>
     <t>sales[d-1][m-1]</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>AG points</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>Gantic</t>
+  </si>
+  <si>
+    <t>Reton8</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>playerData</t>
+  </si>
+  <si>
+    <t>Player stats</t>
+  </si>
+  <si>
+    <t>AmyClyne</t>
+  </si>
+  <si>
+    <t>Queenw</t>
   </si>
 </sst>
 </file>
@@ -132,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55B4CE-15C1-4A53-9DB2-07D87CE81A4A}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -749,4 +787,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE241D-4C5D-4C3E-87F7-13C2377D6905}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1115</v>
+      </c>
+      <c r="E3">
+        <v>39720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1057</v>
+      </c>
+      <c r="E4">
+        <v>38865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>1115</v>
+      </c>
+      <c r="E5">
+        <v>36935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1022</v>
+      </c>
+      <c r="E6">
+        <v>30735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>